--- a/DailyPricingAutomationTest/Repo/i2o_TestReport_Jvc.xlsx
+++ b/DailyPricingAutomationTest/Repo/i2o_TestReport_Jvc.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\DailyPricingAutomationTest\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E4386C-5FC1-4F73-A417-BE001E07D82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5BD94-DA4B-4389-9BDA-584529A6DAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestModules" sheetId="1" r:id="rId1"/>
     <sheet name="DateChecks" sheetId="16" r:id="rId2"/>
-    <sheet name="DailyPricingTest" sheetId="14" r:id="rId3"/>
+    <sheet name="DailyPricingTest" sheetId="17" r:id="rId3"/>
+    <sheet name="DailyPricingTest3P" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
   <si>
     <t>Execution status</t>
   </si>
@@ -88,6 +89,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
     <t>Last Run Date And Time</t>
   </si>
   <si>
@@ -155,203 +159,254 @@
   </si>
   <si>
     <t>Validate availibility of latest/expected date in Dailyprie trend graph</t>
-  </si>
-  <si>
-    <t>PRICETREND_EXPECTED_DATE</t>
   </si>
   <si>
     <t xml:space="preserve">Validate BBX winner in daily price trend  of TOP 5 Product in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_BBXWINNER</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate BBX win price in daily price trend of TOP 5 Product in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_BBXWINNERPRICE</t>
-  </si>
-  <si>
     <t>P Across P Popup</t>
-  </si>
-  <si>
-    <t>PAPPOPUP_EXPECTED_DATE</t>
   </si>
   <si>
     <t xml:space="preserve">Validate newegg price of TOP 5 Products  in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_NEWEGG_PRICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate walmart price of TOP 5 Products  in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_WALMART_PRICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate Bestbuy price of TOP 5 Products  in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_BESTBUY_PRICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate bhpphotovideo price of TOP 5 Products  in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_BHPPHOTOVIDEO_PRICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate Amazon buybox price of TOP 5 Products in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_AMAZONBBX_PRICE</t>
-  </si>
-  <si>
     <t>Reseller Details</t>
   </si>
   <si>
-    <t>RESDETAILS_EXPECTED_DATE</t>
-  </si>
-  <si>
     <t>Validate BBX winner of TOP 5 Products in prestage and mart for last 7 days interval</t>
   </si>
   <si>
-    <t>LAST7_DAYS_BBXWINNER</t>
-  </si>
-  <si>
     <t>Validate Total Resellers of TOP 5 Products in prestage and mart for last 30 days interval</t>
   </si>
   <si>
-    <t>LAST30_DAYS_RESELLERS</t>
-  </si>
-  <si>
     <t>Validate Low Price alert count of TOP 5 Products in prestage and mart for last 7 days interval</t>
   </si>
   <si>
-    <t>LAST7_DAYS_LOWALERTCOUNT</t>
-  </si>
-  <si>
     <t>Validate Low Price alert count of TOP 5 Products in prestage and mart for last 30 days interval</t>
   </si>
   <si>
-    <t>LAST30_DAYS_LOWALERTCOUNT</t>
-  </si>
-  <si>
     <t>Reseller Offers</t>
-  </si>
-  <si>
-    <t>RESOFF_EXPECTED_DATE</t>
   </si>
   <si>
     <t xml:space="preserve">Validate Listings count of TOP 5 Products in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_LISTING_RESELLEROFFERS</t>
-  </si>
-  <si>
     <t>P Across P</t>
-  </si>
-  <si>
-    <t>PAP_EXPECTED_DATE</t>
-  </si>
-  <si>
-    <t>PAP_NEWEGG_PRICE</t>
-  </si>
-  <si>
-    <t>PAP_WALMART_PRICE</t>
-  </si>
-  <si>
-    <t>PAP_BESTBUY_PRICE</t>
-  </si>
-  <si>
-    <t>PAP_BHPPHOTOVIDEO_PRICE</t>
   </si>
   <si>
     <t xml:space="preserve">Validate amazon  price of TOP 5 Products  in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>PAP_AMAZON_PRICE</t>
-  </si>
-  <si>
-    <t>PAP_AMAZONBBX_PRICE</t>
-  </si>
-  <si>
     <t>Unscrapped rept</t>
-  </si>
-  <si>
-    <t>UNSCRAPED_EXPECTED_DATE</t>
   </si>
   <si>
     <t xml:space="preserve">Validate scrapped Pltform count of 5 Products in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
-    <t>DAILY_SCRAPPED</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate Un-scrapped Pltform count of 5 Products in Prestage and Mart for current day minus one
  </t>
   </si>
   <si>
+    <t>DailyPricingTest</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Prestage Value</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>Epected Date</t>
+  </si>
+  <si>
+    <t>DateChecks</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Validate availibility of latest/expected date in P Across P Popup</t>
+  </si>
+  <si>
+    <t>Validate availibility of latest/expected date in Reseller Details</t>
+  </si>
+  <si>
+    <t>Validate availibility of latest/expected date in Reseller Offers</t>
+  </si>
+  <si>
+    <t>Validate availibility of latest/expected date in P Across P</t>
+  </si>
+  <si>
+    <t>Validate availibility of latest/expected date in Unscrapped rept</t>
+  </si>
+  <si>
+    <t>DAILY_BBXWINNER3P</t>
+  </si>
+  <si>
+    <t>DAILY_BBXWINNERPRICE3P</t>
+  </si>
+  <si>
+    <t>DAILY_NEWEGG_PRICE3P</t>
+  </si>
+  <si>
+    <t>DAILY_WALMART_PRICE3P</t>
+  </si>
+  <si>
+    <t>DAILY_BESTBUY_PRICE3P</t>
+  </si>
+  <si>
+    <t>DAILY_BHPPHOTOVIDEO_PRICE3P</t>
+  </si>
+  <si>
+    <t>DAILY_AMAZONBBX_PRICE3P</t>
+  </si>
+  <si>
+    <t>LAST7_DAYS_BBXWINNER3P</t>
+  </si>
+  <si>
+    <t>LAST30_DAYS_RESELLERS3P</t>
+  </si>
+  <si>
+    <t>LAST7_DAYS_LOWALERTCOUNT3P</t>
+  </si>
+  <si>
+    <t>LAST30_DAYS_LOWALERTCOUNT3P</t>
+  </si>
+  <si>
+    <t>DAILY_LISTING_RESELLEROFFERS3P</t>
+  </si>
+  <si>
+    <t>PAP_NEWEGG_PRICE3P</t>
+  </si>
+  <si>
+    <t>PAP_WALMART_PRICE3P</t>
+  </si>
+  <si>
+    <t>PAP_BESTBUY_PRICE3P</t>
+  </si>
+  <si>
+    <t>PAP_BHPPHOTOVIDEO_PRICE3P</t>
+  </si>
+  <si>
+    <t>PAP_AMAZON_PRICE3P</t>
+  </si>
+  <si>
+    <t>PAP_AMAZONBBX_PRICE3P</t>
+  </si>
+  <si>
+    <t>DAILY_SCRAPPED3P</t>
+  </si>
+  <si>
+    <t>DAILY_UNSCRAPPED3P</t>
+  </si>
+  <si>
+    <t>DAILY_BBXWINNER</t>
+  </si>
+  <si>
+    <t>DAILY_BBXWINNERPRICE</t>
+  </si>
+  <si>
+    <t>DAILY_NEWEGG_PRICE</t>
+  </si>
+  <si>
+    <t>DAILY_WALMART_PRICE</t>
+  </si>
+  <si>
+    <t>DAILY_BESTBUY_PRICE</t>
+  </si>
+  <si>
+    <t>DAILY_BHPPHOTOVIDEO_PRICE</t>
+  </si>
+  <si>
+    <t>DAILY_AMAZONBBX_PRICE</t>
+  </si>
+  <si>
+    <t>LAST7_DAYS_BBXWINNER</t>
+  </si>
+  <si>
+    <t>LAST30_DAYS_RESELLERS</t>
+  </si>
+  <si>
+    <t>LAST7_DAYS_LOWALERTCOUNT</t>
+  </si>
+  <si>
+    <t>LAST30_DAYS_LOWALERTCOUNT</t>
+  </si>
+  <si>
+    <t>DAILY_LISTING_RESELLEROFFERS</t>
+  </si>
+  <si>
+    <t>PAP_NEWEGG_PRICE</t>
+  </si>
+  <si>
+    <t>PAP_WALMART_PRICE</t>
+  </si>
+  <si>
+    <t>PAP_BESTBUY_PRICE</t>
+  </si>
+  <si>
+    <t>PAP_BHPPHOTOVIDEO_PRICE</t>
+  </si>
+  <si>
+    <t>PAP_AMAZON_PRICE</t>
+  </si>
+  <si>
+    <t>PAP_AMAZONBBX_PRICE</t>
+  </si>
+  <si>
+    <t>DAILY_SCRAPPED</t>
+  </si>
+  <si>
     <t>DAILY_UNSCRAPPED</t>
   </si>
   <si>
-    <t>DailyPricingTest</t>
-  </si>
-  <si>
-    <t>Prestage Value</t>
-  </si>
-  <si>
-    <t>Current Date</t>
-  </si>
-  <si>
-    <t>DateChecks</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Validate availibility of latest/expected date in P Across P Popup</t>
-  </si>
-  <si>
-    <t>Validate availibility of latest/expected date in Reseller Details</t>
-  </si>
-  <si>
-    <t>Validate availibility of latest/expected date in Reseller Offers</t>
-  </si>
-  <si>
-    <t>Validate availibility of latest/expected date in P Across P</t>
-  </si>
-  <si>
-    <t>Validate availibility of latest/expected date in Unscrapped rept</t>
-  </si>
-  <si>
-    <t>Expected Date</t>
-  </si>
-  <si>
-    <t>Test Name</t>
-  </si>
-  <si>
-    <t>07/19/2020 02:27:29</t>
-  </si>
-  <si>
-    <t>07/19/2020 03:02:04</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>DailyPricingTest3P</t>
+  </si>
+  <si>
+    <t>PRICETREND_EXPECTED_DATE</t>
+  </si>
+  <si>
+    <t>PAPPOPUP_EXPECTED_DATE</t>
+  </si>
+  <si>
+    <t>RESDETAILS_EXPECTED_DATE</t>
+  </si>
+  <si>
+    <t>RESOFF_EXPECTED_DATE</t>
+  </si>
+  <si>
+    <t>PAP_EXPECTED_DATE</t>
+  </si>
+  <si>
+    <t>UNSCRAPED_EXPECTED_DATE</t>
   </si>
 </sst>
 </file>
@@ -503,7 +558,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -784,6 +839,146 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <extLst>
@@ -807,24 +1002,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D8392DF-5119-437F-A5E7-B3788A48CB5A}" name="Table2783" displayName="Table2783" ref="A1:I7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D8392DF-5119-437F-A5E7-B3788A48CB5A}" name="Table2783" displayName="Table2783" ref="A1:I7" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="A1:I7" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A46CBE3C-21CC-4543-9087-FC431E2DF941}" name="TestID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{418E7A3B-F559-4531-8FDD-003E07124BF9}" name="Module" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{1F0C2905-14CA-4109-93BB-2299D0190C90}" name="Test Scenario  " dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{E019BB5E-07CA-4662-8A1E-EFB361D88843}" name="Logical Name/Metric" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{1B683224-0EA3-4E75-B71E-D8E666FAFAA1}" name="Current Date" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1A9CAD6B-8D67-47F1-B290-1A4B4B9AAA9A}" name="Expected Date" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{B763F200-C9DE-4266-AA1A-419097A60DEC}" name="Mart Value" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{C166A3D1-E8B2-42C7-96AF-2053D8FD3BCA}" name="Difference" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{37926E96-CE31-4AF7-8B01-3D52F0662E8B}" name="Status" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{A46CBE3C-21CC-4543-9087-FC431E2DF941}" name="TestID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{418E7A3B-F559-4531-8FDD-003E07124BF9}" name="Module" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{1F0C2905-14CA-4109-93BB-2299D0190C90}" name="Test Scenario  " dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{E019BB5E-07CA-4662-8A1E-EFB361D88843}" name="Logical Name/Metric" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{1B683224-0EA3-4E75-B71E-D8E666FAFAA1}" name="Current Date" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{1A9CAD6B-8D67-47F1-B290-1A4B4B9AAA9A}" name="Epected Date" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{B763F200-C9DE-4266-AA1A-419097A60DEC}" name="Mart Value" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{C166A3D1-E8B2-42C7-96AF-2053D8FD3BCA}" name="Difference" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{37926E96-CE31-4AF7-8B01-3D52F0662E8B}" name="Status" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B344B3C4-72B6-4C63-8077-814DCB11B685}" name="Table2782" displayName="Table2782" ref="A1:I101" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+  <autoFilter ref="A1:I101" xr:uid="{14DF0F5C-09E7-4329-9F5A-B4BC4DF6BFE3}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{598E0824-C17E-4CD7-A89F-16DB8D29A737}" name="TestID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A565E23E-E6CD-44E7-BBFC-6D5F784CD27A}" name="Module" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9B9D8CDF-2C06-4712-B550-CA1F9D502E38}" name="Test Scenario  " dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C81D35AE-3AC4-4113-8F3C-68E07A31D4DA}" name="Logical Name/Metric" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{466B836D-D66B-4487-939C-163178A584BE}" name="Product ID" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{1A48D657-889E-4D90-AC30-0E16F2C2AF14}" name="Prestage Value" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{4A5D38C7-C4B0-4ECA-92CF-B6B7EB150D31}" name="Mart Value" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{845C5192-0090-4885-86A6-39E8FF0765CA}" name="Difference" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{8ADF65E8-1943-4B8F-BC0D-EE48410C0F8E}" name="Status" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B14F12CA-C300-4E14-8A70-8C490D3EF056}" name="Table278" displayName="Table278" ref="A1:I101" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:I101" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
   <tableColumns count="9">
@@ -1163,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,35 +1393,37 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1229,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A442BAA9-67E2-4E52-8465-0D9BB30FFCEC}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,16 +1470,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
@@ -1281,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1300,13 +1515,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -1319,13 +1534,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1338,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1357,13 +1572,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1376,13 +1591,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1401,11 +1616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BE30E4-3805-4394-BCAD-411B5D19AEAC}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I101"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,16 +1645,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
@@ -1456,13 +1671,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1519,13 +1734,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1582,13 +1797,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1645,13 +1860,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1708,13 +1923,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1771,13 +1986,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -1834,13 +2049,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -1850,7 +2065,7 @@
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33"/>
@@ -1894,16 +2109,16 @@
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1946,7 +2161,7 @@
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41"/>
@@ -1957,16 +2172,16 @@
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -1998,7 +2213,7 @@
     </row>
     <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45"/>
@@ -2009,7 +2224,7 @@
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -2025,13 +2240,13 @@
         <v>24</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -2052,7 +2267,7 @@
     </row>
     <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49"/>
@@ -2063,7 +2278,7 @@
     </row>
     <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50"/>
@@ -2088,13 +2303,13 @@
         <v>27</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -2104,7 +2319,7 @@
     </row>
     <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53"/>
@@ -2115,7 +2330,7 @@
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54"/>
@@ -2150,16 +2365,16 @@
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
@@ -2169,7 +2384,7 @@
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -2208,7 +2423,7 @@
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -2221,16 +2436,16 @@
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -2262,7 +2477,7 @@
     </row>
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65"/>
@@ -2273,7 +2488,7 @@
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66"/>
@@ -2287,13 +2502,13 @@
         <v>34</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
@@ -2314,7 +2529,7 @@
     </row>
     <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69"/>
@@ -2325,7 +2540,7 @@
     </row>
     <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70"/>
@@ -2350,13 +2565,13 @@
         <v>37</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
@@ -2366,7 +2581,7 @@
     </row>
     <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73"/>
@@ -2377,7 +2592,7 @@
     </row>
     <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74"/>
@@ -2410,16 +2625,16 @@
     </row>
     <row r="77" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -2429,7 +2644,7 @@
     </row>
     <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78"/>
@@ -2462,7 +2677,7 @@
     </row>
     <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81"/>
@@ -2473,16 +2688,16 @@
     </row>
     <row r="82" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
@@ -2514,7 +2729,7 @@
     </row>
     <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85"/>
@@ -2525,7 +2740,7 @@
     </row>
     <row r="86" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86"/>
@@ -2539,13 +2754,13 @@
         <v>44</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
@@ -2566,7 +2781,7 @@
     </row>
     <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89"/>
@@ -2577,7 +2792,7 @@
     </row>
     <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90"/>
@@ -2602,13 +2817,13 @@
         <v>47</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -2618,7 +2833,7 @@
     </row>
     <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -2631,7 +2846,7 @@
     </row>
     <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -2670,16 +2885,16 @@
     </row>
     <row r="97" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E97"/>
       <c r="F97"/>
@@ -2689,7 +2904,7 @@
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -2728,7 +2943,1354 @@
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="3"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="79.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>20</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>22</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>24</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>25</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>26</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>27</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>28</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>29</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>30</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>32</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>33</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>34</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>35</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
         <v>36</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>37</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>38</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>39</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>40</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>41</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>42</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>43</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>44</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>45</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>46</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>47</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>48</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>49</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>50</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>51</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
